--- a/StructureDefinition-ext-R5-RequestOrchestration.act.participant.xlsx
+++ b/StructureDefinition-ext-R5-RequestOrchestration.act.participant.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T19:17:19.5427077+00:00</t>
+    <t>2026-02-10T04:05:33.0136333+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -344,7 +344,7 @@
     <t>The type of participant in the action.</t>
   </si>
   <si>
-    <t>Element `RequestOrchestration.action.participant.type` is mapped to FHIR R4 structure `RequestGroup`, but has no target element specified.</t>
+    <t>Element `RequestOrchestration.action.participant.type` is will have a context of RequestGroup.action.participant based on following the parent source element upwards and mapping to `RequestGroup`.</t>
   </si>
   <si>
     <t>Extension.extension:type.id</t>
@@ -432,7 +432,8 @@
     <t>Who or what can participate</t>
   </si>
   <si>
-    <t>Element `RequestOrchestration.action.participant.typeCanonical` is mapped to FHIR R4 structure `RequestGroup`, but has no target element specified.</t>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `RequestOrchestration.action.participant.typeCanonical` with an unmapped Canonical type: `http://hl7.org/fhir/StructureDefinition/alternate-canonical`.
+Element `RequestOrchestration.action.participant.typeCanonical` is will have a context of RequestGroup.action.participant based on following the parent source element upwards and mapping to `RequestGroup`.</t>
   </si>
   <si>
     <t>Extension.extension:typeCanonical.id</t>
@@ -460,7 +461,8 @@
     <t>When this element is a reference, it SHOULD be a reference to a definitional resource (for example, a location type, rather than a specific location).</t>
   </si>
   <si>
-    <t>Element `RequestOrchestration.action.participant.typeReference` is mapped to FHIR R4 structure `RequestGroup`, but has no target element specified.</t>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `RequestOrchestration.action.participant.typeReference` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
+Element `RequestOrchestration.action.participant.typeReference` is will have a context of RequestGroup.action.participant based on following the parent source element upwards and mapping to `RequestGroup`.</t>
   </si>
   <si>
     <t>Extension.extension:typeReference.id</t>
@@ -491,7 +493,7 @@
     <t>The role the participant should play in performing the described action.</t>
   </si>
   <si>
-    <t>Element `RequestOrchestration.action.participant.role` is mapped to FHIR R4 structure `RequestGroup`, but has no target element specified.</t>
+    <t>Element `RequestOrchestration.action.participant.role` is will have a context of RequestGroup.action.participant based on following the parent source element upwards and mapping to `RequestGroup`.</t>
   </si>
   <si>
     <t>Extension.extension:role.id</t>
@@ -531,7 +533,7 @@
     <t>Indicates how the actor will be involved in the action - author, reviewer, witness, etc.</t>
   </si>
   <si>
-    <t>Element `RequestOrchestration.action.participant.function` is mapped to FHIR R4 structure `RequestGroup`, but has no target element specified.</t>
+    <t>Element `RequestOrchestration.action.participant.function` is will have a context of RequestGroup.action.participant based on following the parent source element upwards and mapping to `RequestGroup`.</t>
   </si>
   <si>
     <t>Extension.extension:function.id</t>
@@ -558,7 +560,7 @@
     <t>A reference to the actual participant.</t>
   </si>
   <si>
-    <t>Element `RequestOrchestration.action.participant.actor[x]` is mapped to FHIR R4 structure `RequestGroup`, but has no target element specified.</t>
+    <t>Element `RequestOrchestration.action.participant.actor[x]` is will have a context of RequestGroup.action.participant based on following the parent source element upwards and mapping to `RequestGroup`.</t>
   </si>
   <si>
     <t>Extension.extension:actor.id</t>
@@ -924,7 +926,7 @@
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="122.21484375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="216.546875" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
